--- a/maiaa.xlsx
+++ b/maiaa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\OneDrive - INSTITUTO TECNOLOGICO DE MERIDA\Documentos\GitHub\VUE\Autores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Autores\Autores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF05CF0B-D3B1-43E0-8C42-AD69919571B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF5C83D-F7B9-44BC-B46D-2CA1905E04B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/maiaa.xlsx
+++ b/maiaa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Autores\Autores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF5C83D-F7B9-44BC-B46D-2CA1905E04B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F44BB5-24D5-4510-9CBF-7A57C523EA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
     <t>e</t>
   </si>
   <si>
-    <t>f</t>
+    <t>orem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
   </si>
 </sst>
 </file>
@@ -386,8 +386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,5 +604,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/maiaa.xlsx
+++ b/maiaa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Autores\Autores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F44BB5-24D5-4510-9CBF-7A57C523EA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E62E3C-5EC8-4B73-8D65-ABA5295189FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -48,32 +48,64 @@
     <t>descripcion</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>orem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+    <t>Didier</t>
+  </si>
+  <si>
+    <t>Crespo Castillla</t>
+  </si>
+  <si>
+    <t>Esteban</t>
+  </si>
+  <si>
+    <t>Brito Borges</t>
+  </si>
+  <si>
+    <t>ejemlo@.com</t>
+  </si>
+  <si>
+    <t>facebook.com.mx</t>
+  </si>
+  <si>
+    <t>encargado</t>
+  </si>
+  <si>
+    <t>Encargado del desarrollo primordial de la API de la plataforma.</t>
+  </si>
+  <si>
+    <t>marcos</t>
+  </si>
+  <si>
+    <t>dsssssss</t>
+  </si>
+  <si>
+    <t>dssssssssss</t>
+  </si>
+  <si>
+    <t>dssssss</t>
+  </si>
+  <si>
+    <t>sddddddd</t>
+  </si>
+  <si>
+    <t>sddddddddddddddddd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,16 +128,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -384,18 +421,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,7 +456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -428,182 +466,238 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>12</v>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{D759A46F-8933-4FCC-A3AD-5EBF9988A509}"/>
+    <hyperlink ref="D3:D9" r:id="rId2" display="ejemlo@.com" xr:uid="{AF80A2B2-11E5-45D2-A5F5-377A3DE2EC55}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/maiaa.xlsx
+++ b/maiaa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Autores\Autores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E62E3C-5EC8-4B73-8D65-ABA5295189FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD0B0B8-3C90-459D-B1D6-3B0647BD90DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>sddddddddddddddddd</t>
+  </si>
+  <si>
+    <t>jjj</t>
+  </si>
+  <si>
+    <t>hhhhh</t>
+  </si>
+  <si>
+    <t>iiii</t>
   </si>
 </sst>
 </file>
@@ -421,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:H11"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>20</v>
@@ -690,6 +699,29 @@
       </c>
       <c r="H11" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/maiaa.xlsx
+++ b/maiaa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Autores\Autores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Autores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD0B0B8-3C90-459D-B1D6-3B0647BD90DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096AAFCD-DCB0-4300-8955-0D51329F3DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -66,9 +66,6 @@
     <t>facebook.com.mx</t>
   </si>
   <si>
-    <t>encargado</t>
-  </si>
-  <si>
     <t>Encargado del desarrollo primordial de la API de la plataforma.</t>
   </si>
   <si>
@@ -93,17 +90,29 @@
     <t>jjj</t>
   </si>
   <si>
-    <t>hhhhh</t>
-  </si>
-  <si>
     <t>iiii</t>
+  </si>
+  <si>
+    <t>senior</t>
+  </si>
+  <si>
+    <t>junior</t>
+  </si>
+  <si>
+    <t>junor</t>
+  </si>
+  <si>
+    <t>ijunior</t>
+  </si>
+  <si>
+    <t>Uicap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +124,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -141,7 +158,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -149,6 +166,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -430,19 +448,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -482,13 +500,13 @@
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -505,13 +523,13 @@
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -528,13 +546,13 @@
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -551,13 +569,13 @@
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -574,13 +592,14 @@
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -597,13 +616,13 @@
         <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -620,13 +639,13 @@
         <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -643,86 +662,89 @@
         <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/maiaa.xlsx
+++ b/maiaa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Autores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096AAFCD-DCB0-4300-8955-0D51329F3DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073896A4-635F-4585-BCDD-E827F33BE6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -90,22 +90,16 @@
     <t>jjj</t>
   </si>
   <si>
+    <t>hhhhh</t>
+  </si>
+  <si>
     <t>iiii</t>
   </si>
   <si>
+    <t>junior</t>
+  </si>
+  <si>
     <t>senior</t>
-  </si>
-  <si>
-    <t>junior</t>
-  </si>
-  <si>
-    <t>junor</t>
-  </si>
-  <si>
-    <t>ijunior</t>
-  </si>
-  <si>
-    <t>Uicap</t>
   </si>
 </sst>
 </file>
@@ -448,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -460,7 +454,7 @@
     <col min="7" max="7" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,7 +477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -500,13 +494,13 @@
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -523,13 +517,13 @@
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -546,13 +540,13 @@
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -575,7 +569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -592,14 +586,13 @@
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -622,7 +615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -639,13 +632,13 @@
         <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -662,13 +655,13 @@
         <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -685,7 +678,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>20</v>
@@ -694,7 +687,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -711,7 +704,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>18</v>
@@ -720,31 +713,31 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B20" s="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F17" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/maiaa.xlsx
+++ b/maiaa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Autores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073896A4-635F-4585-BCDD-E827F33BE6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EC4873-EA89-498D-B13B-B42FB74E56D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -60,12 +60,6 @@
     <t>Brito Borges</t>
   </si>
   <si>
-    <t>ejemlo@.com</t>
-  </si>
-  <si>
-    <t>facebook.com.mx</t>
-  </si>
-  <si>
     <t>Encargado del desarrollo primordial de la API de la plataforma.</t>
   </si>
   <si>
@@ -75,31 +69,43 @@
     <t>dsssssss</t>
   </si>
   <si>
-    <t>dssssssssss</t>
-  </si>
-  <si>
-    <t>dssssss</t>
-  </si>
-  <si>
-    <t>sddddddd</t>
-  </si>
-  <si>
-    <t>sddddddddddddddddd</t>
-  </si>
-  <si>
-    <t>jjj</t>
-  </si>
-  <si>
-    <t>hhhhh</t>
-  </si>
-  <si>
-    <t>iiii</t>
-  </si>
-  <si>
     <t>junior</t>
   </si>
   <si>
     <t>senior</t>
+  </si>
+  <si>
+    <t>https://mx.linkedin.com/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/intl/es-419/gmail/about/</t>
+  </si>
+  <si>
+    <t>Mauricio</t>
+  </si>
+  <si>
+    <t>Orizco del Castillo</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Gongora Bojorquez</t>
+  </si>
+  <si>
+    <t>Uicab</t>
+  </si>
+  <si>
+    <t>Jose Luis</t>
+  </si>
+  <si>
+    <t>Uicab can</t>
+  </si>
+  <si>
+    <t>Albert</t>
+  </si>
+  <si>
+    <t>Caamal Castañeda</t>
   </si>
 </sst>
 </file>
@@ -152,7 +158,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -161,6 +167,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -442,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -454,7 +464,7 @@
     <col min="7" max="7" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,7 +487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -488,88 +498,88 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -580,19 +590,19 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -603,19 +613,19 @@
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -626,19 +636,19 @@
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -649,102 +659,120 @@
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="G11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="G12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K14" s="3"/>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.35">
       <c r="F17" s="3"/>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F20" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{D759A46F-8933-4FCC-A3AD-5EBF9988A509}"/>
-    <hyperlink ref="D3:D9" r:id="rId2" display="ejemlo@.com" xr:uid="{AF80A2B2-11E5-45D2-A5F5-377A3DE2EC55}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{5FCC2FE3-11AF-43E7-8FB5-C4E6F45C2F38}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{1DADAD36-5269-4C59-B54C-E630F7C0FB33}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{65677745-9717-4CE4-90C8-2E64DC4409E0}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{8B486DED-10FE-4EF5-9924-A54E9FCB9507}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{05D08F20-132A-4A68-B233-F2BA562366EA}"/>
+    <hyperlink ref="E9" r:id="rId6" xr:uid="{5C874E48-C8D0-4336-94C2-76D7057A3C8C}"/>
+    <hyperlink ref="E10" r:id="rId7" xr:uid="{BAF4EDE5-DB7E-4259-8A42-D3C65BEE8589}"/>
+    <hyperlink ref="E11" r:id="rId8" xr:uid="{BD996624-F8E1-4E6D-9DD8-0AF5C1132363}"/>
+    <hyperlink ref="E12" r:id="rId9" xr:uid="{4558B58C-B663-463C-970B-46133A3D172F}"/>
+    <hyperlink ref="D2" r:id="rId10" xr:uid="{7B71DC2E-D6DB-49C3-8ABF-0E8BB15C37BE}"/>
+    <hyperlink ref="D3" r:id="rId11" xr:uid="{6A2FBEFA-6D24-41C7-B56F-D3D5956D9DA2}"/>
+    <hyperlink ref="D10" r:id="rId12" xr:uid="{D3BC2717-9EEA-4374-965B-87E1D662A5B9}"/>
+    <hyperlink ref="D11" r:id="rId13" xr:uid="{09E322AB-847A-4B95-B7B6-FE1B3003E613}"/>
+    <hyperlink ref="D12" r:id="rId14" xr:uid="{6AE5B2D3-E276-40F3-B9CD-AD1C01C8694B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>